--- a/Inventory_formated.xlsx
+++ b/Inventory_formated.xlsx
@@ -113,8 +113,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="11" xfId="0" applyNumberFormat="1"/>
@@ -628,7 +627,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -707,116 +706,38 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
       <c r="F2">
         <v>0.61499999999999999</v>
       </c>
-      <c r="G2"/>
       <c r="H2">
         <v>0.31</v>
       </c>
-      <c r="I2"/>
-      <c r="J2"/>
       <c r="K2">
         <v>1.8899999999999999</v>
       </c>
       <c r="L2">
         <v>0.00015474</v>
       </c>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
       <c r="P2">
         <v>0.0080000000000000002</v>
       </c>
-      <c r="Q2"/>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>0.069000000000000006</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2"/>
-      <c r="U2"/>
+      <c r="S2" s="1"/>
     </row>
     <row r="3" ht="14.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
       <c r="L3">
         <v>0.00015474</v>
       </c>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
     </row>
     <row r="4" ht="14.25">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4">
-        <v>0.000408</v>
-      </c>
-      <c r="G4">
-        <v>0.00018900000000000001</v>
-      </c>
-      <c r="H4"/>
-      <c r="I4">
-        <v>0.00024899999999999998</v>
-      </c>
-      <c r="J4">
-        <v>0.000146</v>
-      </c>
-      <c r="K4">
-        <v>8.6000000000000003e-05</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>5.1e-05</v>
-      </c>
-      <c r="P4">
-        <v>5.0000000000000004e-06</v>
-      </c>
-      <c r="Q4">
-        <v>9.8999999999999994e-05</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0.0023969999999999998</v>
-      </c>
-      <c r="T4"/>
-      <c r="U4"/>
     </row>
     <row r="5" ht="14.25">
       <c r="A5">
@@ -831,7 +752,7 @@
       <c r="D5">
         <v>295.08690000000001</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>9.9999999999999998e-13</v>
       </c>
       <c r="F5">
@@ -876,33 +797,11 @@
       <c r="S5">
         <v>6.5057</v>
       </c>
-      <c r="T5"/>
-      <c r="U5"/>
     </row>
     <row r="6" ht="14.25">
       <c r="A6">
         <v>8</v>
       </c>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
     </row>
     <row r="7" ht="14.25">
       <c r="A7">
@@ -914,13 +813,9 @@
       <c r="C7">
         <v>11.3132</v>
       </c>
-      <c r="D7"/>
-      <c r="E7"/>
       <c r="F7">
         <v>1.7606528269999999</v>
       </c>
-      <c r="G7"/>
-      <c r="H7"/>
       <c r="I7">
         <v>4.4562589130000001</v>
       </c>
@@ -930,741 +825,141 @@
       <c r="K7">
         <v>1.832017553</v>
       </c>
-      <c r="L7"/>
       <c r="M7">
         <v>0.25618106800000001</v>
       </c>
-      <c r="N7"/>
-      <c r="O7"/>
       <c r="P7">
         <v>10.39793746</v>
       </c>
       <c r="Q7">
         <v>4.2689668709999999</v>
       </c>
-      <c r="R7"/>
       <c r="S7">
         <v>1137.7453310000001</v>
       </c>
-      <c r="T7"/>
-      <c r="U7"/>
     </row>
     <row r="8" ht="14.25">
       <c r="A8">
         <v>12</v>
       </c>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
       <c r="F8">
         <v>9</v>
       </c>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
     </row>
     <row r="9" ht="14.25">
       <c r="A9">
         <v>14</v>
       </c>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
     </row>
     <row r="10" ht="14.25">
       <c r="A10">
         <v>16</v>
       </c>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
     </row>
     <row r="11" ht="14.25">
       <c r="A11">
         <v>18</v>
       </c>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
     </row>
     <row r="12" ht="14.25">
       <c r="A12">
         <v>20</v>
       </c>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-    </row>
-    <row r="20" ht="14.25">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-    </row>
-    <row r="21" ht="14.25">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-    </row>
-    <row r="22" ht="14.25">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-    </row>
-    <row r="23" ht="14.25">
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-    </row>
-    <row r="24" ht="14.25">
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-    </row>
-    <row r="25" ht="14.25">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-    </row>
-    <row r="26" ht="14.25">
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-    </row>
-    <row r="30" ht="14.25">
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-    </row>
-    <row r="31" ht="14.25">
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-    </row>
-    <row r="32" ht="14.25">
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-    </row>
-    <row r="33" ht="14.25">
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-    </row>
-    <row r="34" ht="14.25">
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-    </row>
-    <row r="35" ht="14.25">
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-    </row>
-    <row r="36" ht="14.25">
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-    </row>
-    <row r="37" ht="14.25">
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-    </row>
-    <row r="38" ht="14.25">
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-    </row>
-    <row r="39" ht="14.25">
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-    </row>
-    <row r="40" ht="14.25">
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-    </row>
-    <row r="41" ht="14.25">
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-    </row>
-    <row r="42" ht="14.25">
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-    </row>
-    <row r="43" ht="14.25">
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-    </row>
-    <row r="44" ht="14.25">
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-    </row>
-    <row r="45" ht="14.25">
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-    </row>
-    <row r="46" ht="14.25">
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-    </row>
-    <row r="47" ht="14.25">
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-    </row>
-    <row r="48" ht="14.25">
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-    </row>
-    <row r="49" ht="14.25">
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-    </row>
-    <row r="50" ht="14.25">
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-    </row>
-    <row r="51" ht="14.25">
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-    </row>
-    <row r="52" ht="14.25">
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-    </row>
-    <row r="53" ht="14.25">
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-    </row>
-    <row r="54" ht="14.25">
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-    </row>
-    <row r="55" ht="14.25">
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-    </row>
-    <row r="56" ht="14.25">
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
-    </row>
-    <row r="57" ht="14.25">
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-    </row>
-    <row r="58" ht="14.25">
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-    </row>
-    <row r="59" ht="14.25">
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
-    </row>
-    <row r="60" ht="14.25">
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60"/>
-    </row>
-    <row r="61" ht="14.25">
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
-    </row>
-    <row r="62" ht="14.25">
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-    </row>
-    <row r="63" ht="14.25">
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-    </row>
-    <row r="64" ht="14.25">
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-    </row>
-    <row r="65" ht="14.25">
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-    </row>
-    <row r="66" ht="14.25">
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-    </row>
-    <row r="67" ht="14.25">
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-    </row>
-    <row r="68" ht="14.25">
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-    </row>
-    <row r="69" ht="14.25">
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-    </row>
-    <row r="70" ht="14.25">
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-    </row>
-    <row r="71" ht="14.25">
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-    </row>
-    <row r="72" ht="14.25">
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-    </row>
-    <row r="73" ht="14.25">
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
-    </row>
-    <row r="74" ht="14.25">
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
-    </row>
-    <row r="75" ht="14.25">
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-      <c r="E75"/>
-    </row>
-    <row r="76" ht="14.25">
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
-    </row>
-    <row r="77" ht="14.25">
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-      <c r="E77"/>
-    </row>
-    <row r="78" ht="14.25">
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78"/>
-      <c r="E78"/>
-    </row>
-    <row r="79" ht="14.25">
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
-    </row>
-    <row r="80" ht="14.25">
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-    </row>
-    <row r="81" ht="14.25">
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81"/>
-    </row>
-    <row r="82" ht="14.25">
-      <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82"/>
-    </row>
-    <row r="83" ht="14.25">
-      <c r="B83"/>
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83"/>
-    </row>
-    <row r="84" ht="14.25">
-      <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84"/>
-    </row>
-    <row r="85" ht="14.25">
-      <c r="B85"/>
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85"/>
-    </row>
-    <row r="86" ht="14.25">
-      <c r="B86"/>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86"/>
-    </row>
-    <row r="87" ht="14.25">
-      <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="E87"/>
-    </row>
-    <row r="88" ht="14.25">
-      <c r="B88"/>
-      <c r="C88"/>
-      <c r="D88"/>
-      <c r="E88"/>
-    </row>
-    <row r="89" ht="14.25">
-      <c r="B89"/>
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89"/>
-    </row>
-    <row r="90" ht="14.25">
-      <c r="B90"/>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90"/>
-    </row>
-    <row r="91" ht="14.25">
-      <c r="B91"/>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91"/>
-    </row>
-    <row r="92" ht="14.25">
-      <c r="B92"/>
-      <c r="C92"/>
-      <c r="D92"/>
-      <c r="E92"/>
-    </row>
-    <row r="93" ht="14.25">
-      <c r="B93"/>
-      <c r="C93"/>
-      <c r="D93"/>
-      <c r="E93"/>
-    </row>
-    <row r="94" ht="14.25">
-      <c r="B94"/>
-      <c r="C94"/>
-      <c r="D94"/>
-      <c r="E94"/>
-    </row>
-    <row r="95" ht="14.25">
-      <c r="B95"/>
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95"/>
-    </row>
-    <row r="96" ht="14.25">
-      <c r="B96"/>
-      <c r="C96"/>
-      <c r="D96"/>
-      <c r="E96"/>
-    </row>
-    <row r="97" ht="14.25">
-      <c r="B97"/>
-      <c r="C97"/>
-      <c r="D97"/>
-      <c r="E97"/>
-    </row>
-    <row r="98" ht="14.25">
-      <c r="B98"/>
-      <c r="C98"/>
-      <c r="D98"/>
-      <c r="E98"/>
-    </row>
-    <row r="99" ht="14.25">
-      <c r="B99"/>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99"/>
-    </row>
-    <row r="100" ht="14.25">
-      <c r="B100"/>
-      <c r="C100"/>
-      <c r="D100"/>
-      <c r="E100"/>
-    </row>
-    <row r="101" ht="14.25">
-      <c r="B101"/>
-      <c r="C101"/>
-      <c r="D101"/>
-      <c r="E101"/>
-    </row>
-    <row r="102" ht="14.25">
-      <c r="B102"/>
-      <c r="C102"/>
-      <c r="D102"/>
-      <c r="E102"/>
-    </row>
-    <row r="103" ht="14.25">
-      <c r="B103"/>
-      <c r="C103"/>
-      <c r="D103"/>
-      <c r="E103"/>
-    </row>
-    <row r="104" ht="14.25">
-      <c r="B104"/>
-      <c r="C104"/>
-      <c r="D104"/>
-      <c r="E104"/>
-    </row>
-    <row r="105" ht="14.25">
-      <c r="B105"/>
-      <c r="C105"/>
-      <c r="D105"/>
-      <c r="E105"/>
-    </row>
-    <row r="106" ht="14.25">
-      <c r="B106"/>
-      <c r="C106"/>
-      <c r="D106"/>
-      <c r="E106"/>
-    </row>
+    </row>
+    <row r="13" ht="14.25"/>
+    <row r="14" ht="14.25"/>
+    <row r="15" ht="14.25"/>
+    <row r="16" ht="14.25"/>
+    <row r="17" ht="14.25"/>
+    <row r="18" ht="14.25"/>
+    <row r="19" ht="14.25"/>
+    <row r="20" ht="14.25"/>
+    <row r="21" ht="14.25"/>
+    <row r="22" ht="14.25"/>
+    <row r="23" ht="14.25"/>
+    <row r="24" ht="14.25"/>
+    <row r="25" ht="14.25"/>
+    <row r="26" ht="14.25"/>
+    <row r="27" ht="14.25"/>
+    <row r="28" ht="14.25"/>
+    <row r="29" ht="14.25"/>
+    <row r="30" ht="14.25"/>
+    <row r="31" ht="14.25"/>
+    <row r="32" ht="14.25"/>
+    <row r="33" ht="14.25"/>
+    <row r="34" ht="14.25"/>
+    <row r="35" ht="14.25"/>
+    <row r="36" ht="14.25"/>
+    <row r="37" ht="14.25"/>
+    <row r="38" ht="14.25"/>
+    <row r="39" ht="14.25"/>
+    <row r="40" ht="14.25"/>
+    <row r="41" ht="14.25"/>
+    <row r="42" ht="14.25"/>
+    <row r="43" ht="14.25"/>
+    <row r="44" ht="14.25"/>
+    <row r="45" ht="14.25"/>
+    <row r="46" ht="14.25"/>
+    <row r="47" ht="14.25"/>
+    <row r="48" ht="14.25"/>
+    <row r="49" ht="14.25"/>
+    <row r="50" ht="14.25"/>
+    <row r="51" ht="14.25"/>
+    <row r="52" ht="14.25"/>
+    <row r="53" ht="14.25"/>
+    <row r="54" ht="14.25"/>
+    <row r="55" ht="14.25"/>
+    <row r="56" ht="14.25"/>
+    <row r="57" ht="14.25"/>
+    <row r="58" ht="14.25"/>
+    <row r="59" ht="14.25"/>
+    <row r="60" ht="14.25"/>
+    <row r="61" ht="14.25"/>
+    <row r="62" ht="14.25"/>
+    <row r="63" ht="14.25"/>
+    <row r="64" ht="14.25"/>
+    <row r="65" ht="14.25"/>
+    <row r="66" ht="14.25"/>
+    <row r="67" ht="14.25"/>
+    <row r="68" ht="14.25"/>
+    <row r="69" ht="14.25"/>
+    <row r="70" ht="14.25"/>
+    <row r="71" ht="14.25"/>
+    <row r="72" ht="14.25"/>
+    <row r="73" ht="14.25"/>
+    <row r="74" ht="14.25"/>
+    <row r="75" ht="14.25"/>
+    <row r="76" ht="14.25"/>
+    <row r="77" ht="14.25"/>
+    <row r="78" ht="14.25"/>
+    <row r="79" ht="14.25"/>
+    <row r="80" ht="14.25"/>
+    <row r="81" ht="14.25"/>
+    <row r="82" ht="14.25"/>
+    <row r="83" ht="14.25"/>
+    <row r="84" ht="14.25"/>
+    <row r="85" ht="14.25"/>
+    <row r="86" ht="14.25"/>
+    <row r="87" ht="14.25"/>
+    <row r="88" ht="14.25"/>
+    <row r="89" ht="14.25"/>
+    <row r="90" ht="14.25"/>
+    <row r="91" ht="14.25"/>
+    <row r="92" ht="14.25"/>
+    <row r="93" ht="14.25"/>
+    <row r="94" ht="14.25"/>
+    <row r="95" ht="14.25"/>
+    <row r="96" ht="14.25"/>
+    <row r="97" ht="14.25"/>
+    <row r="98" ht="14.25"/>
+    <row r="99" ht="14.25"/>
+    <row r="100" ht="14.25"/>
+    <row r="101" ht="14.25"/>
+    <row r="102" ht="14.25"/>
+    <row r="103" ht="14.25"/>
+    <row r="104" ht="14.25"/>
+    <row r="105" ht="14.25"/>
+    <row r="106" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/Inventory_formated.xlsx
+++ b/Inventory_formated.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t xml:space="preserve">Layer number</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t xml:space="preserve">finishing type</t>
   </si>
   <si>
     <t>Electricity</t>
@@ -75,10 +75,16 @@
     <t>Water</t>
   </si>
   <si>
-    <t xml:space="preserve">Pad number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface area per pad</t>
+    <t xml:space="preserve">Pad surface</t>
+  </si>
+  <si>
+    <t>Ni/Gold</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Silver</t>
   </si>
 </sst>
 </file>
@@ -113,10 +119,13 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="11" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,7 +636,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -698,174 +707,162 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>17.975711333333333</v>
+      </c>
+      <c r="C2">
+        <v>1.5631053333333333</v>
+      </c>
+      <c r="D2">
+        <v>49.181150000000002</v>
+      </c>
+      <c r="E2" s="2">
+        <v>9.9999999999999998e-13</v>
       </c>
       <c r="F2">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="H2">
-        <v>0.31</v>
+        <v>0.14086158293750001</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2">
+        <v>0.50999118206250005</v>
+      </c>
+      <c r="J2">
+        <v>0.072267098375000005</v>
       </c>
       <c r="K2">
-        <v>1.8899999999999999</v>
+        <v>0.12910734706249999</v>
       </c>
       <c r="L2">
-        <v>0.00015474</v>
+        <v>0.00077280000000000014</v>
+      </c>
+      <c r="M2">
+        <v>0.017814</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0.023105000000000001</v>
       </c>
       <c r="P2">
-        <v>0.0080000000000000002</v>
+        <v>0.76807734124999993</v>
+      </c>
+      <c r="Q2">
+        <v>0.28661667943750002</v>
       </c>
       <c r="R2" s="1">
-        <v>0.069000000000000006</v>
-      </c>
-      <c r="S2" s="1"/>
+        <v>0.02265</v>
+      </c>
+      <c r="S2" s="1">
+        <v>4.443692693750001</v>
+      </c>
+      <c r="T2">
+        <v>0.40000000000000002</v>
+      </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>0.00015474</v>
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3">
+        <v>17.975711333333333</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.5631053333333333</v>
+      </c>
+      <c r="D3" s="3">
+        <v>49.181150000000002</v>
+      </c>
+      <c r="E3" s="2">
+        <v>9.9999999999999998e-13</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.14086158293750001</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.50999118206250005</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.072267098375000005</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.12910734706249999</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.0012588</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.023105000000000001</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0.76807734124999993</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0.28661667943750002</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0.02265</v>
+      </c>
+      <c r="S3" s="3">
+        <v>4.443692693750001</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.40000000000000002</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>107.854268</v>
-      </c>
-      <c r="C5">
-        <v>9.3786319999999996</v>
-      </c>
-      <c r="D5">
-        <v>295.08690000000001</v>
-      </c>
-      <c r="E5" s="2">
-        <v>9.9999999999999998e-13</v>
-      </c>
-      <c r="F5">
-        <v>0.49313249999999997</v>
-      </c>
-      <c r="G5">
-        <v>0.51295000000000002</v>
-      </c>
-      <c r="H5">
-        <v>0.21329999999999999</v>
-      </c>
-      <c r="I5">
-        <v>3.7035999999999998</v>
-      </c>
-      <c r="J5">
-        <v>0.4803</v>
-      </c>
-      <c r="K5">
-        <v>0.23369999999999999</v>
-      </c>
-      <c r="L5">
-        <v>0.00015474</v>
-      </c>
-      <c r="M5">
-        <v>0.00076999999999999996</v>
-      </c>
-      <c r="N5">
-        <v>0.00051473999999999997</v>
-      </c>
-      <c r="O5">
-        <v>0.13863</v>
-      </c>
-      <c r="P5">
-        <v>1.8913</v>
-      </c>
-      <c r="Q5">
-        <v>0.31690000000000002</v>
-      </c>
-      <c r="R5">
-        <v>0.13589999999999999</v>
-      </c>
-      <c r="S5">
-        <v>6.5057</v>
-      </c>
+      <c r="E5" s="2"/>
     </row>
-    <row r="6" ht="14.25">
-      <c r="A6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="A7">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>130.1018</v>
-      </c>
-      <c r="C7">
-        <v>11.3132</v>
-      </c>
-      <c r="F7">
-        <v>1.7606528269999999</v>
-      </c>
-      <c r="I7">
-        <v>4.4562589130000001</v>
-      </c>
-      <c r="J7">
-        <v>0.67597357400000002</v>
-      </c>
-      <c r="K7">
-        <v>1.832017553</v>
-      </c>
-      <c r="M7">
-        <v>0.25618106800000001</v>
-      </c>
-      <c r="P7">
-        <v>10.39793746</v>
-      </c>
-      <c r="Q7">
-        <v>4.2689668709999999</v>
-      </c>
-      <c r="S7">
-        <v>1137.7453310000001</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="A8">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="A9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="A10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="A11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25">
-      <c r="A12">
-        <v>20</v>
-      </c>
-    </row>
+    <row r="6" ht="14.25"/>
+    <row r="7" ht="14.25"/>
+    <row r="8" ht="14.25"/>
+    <row r="9" ht="14.25"/>
+    <row r="10" ht="14.25"/>
+    <row r="11" ht="14.25"/>
+    <row r="12" ht="14.25"/>
     <row r="13" ht="14.25"/>
     <row r="14" ht="14.25"/>
     <row r="15" ht="14.25"/>
